--- a/pred_ohlcv/54_21/2019-11-15 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 VET ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>917651.0292911412</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>918975.5326911412</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>751884.0157911412</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>874921.5564911412</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>874921.5564911412</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>888403.8156911412</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>888403.8156911412</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>875542.5032911411</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>875542.5032911411</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>858152.8222911411</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1094073.893108859</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>802452.2915911414</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9056026.440346975</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8057916.255978</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>7759597.273878001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7350640.766878</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5916696.284816308</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>6645391.767588341</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7381196.672488341</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>7466246.175788341</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5279493.163088341</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5240524.613888341</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5131720.818488341</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5044533.543788341</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5348759.257188341</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5989990.846988341</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5895221.306988341</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>23344785.83126815</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>23374452.03126815</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>23647781.68346815</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>23571069.18346815</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>24115239.21276815</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>20567540.01496815</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>19786403.20196815</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>19615231.57736815</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>19518801.50686815</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>18809247.00116815</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>18812375.86846815</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>18804851.72896815</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>18906090.92276815</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>18815176.51776814</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>18798685.51786815</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>18952452.87776815</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>19470739.04406815</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>21702384.67956045</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>22086569.08776045</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>21860257.44799051</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>22104156.64449051</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>21905390.61021056</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>20470313.39201056</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>20807547.25571056</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>20608856.77731056</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>20647108.46901056</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>21110946.44851056</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>21018682.9854539</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>20855849.4070539</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>20668392.41515389</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>20634881.66495389</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>22045702.9546711</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>22136050.57060912</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>21992695.30580912</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>21993631.75730912</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>21981191.50760912</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>21981191.50760912</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>21839787.33010912</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>21478458.34240912</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>21132856.52140912</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>20792329.53190912</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>20792329.53190912</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>20936422.91110912</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>21137019.82130912</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>21352113.23390912</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>21359880.57740912</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>21359680.87740912</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>21359880.57740912</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>21383991.82390912</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>21383805.06820912</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>21384231.31310912</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>21398347.86819427</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>21498625.506401</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>21498553.395101</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>21320937.716201</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>21341302.410601</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>21283252.944001</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-15 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 VET ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>802452.2915911414</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2124835.957391141</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9056026.440346975</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8057916.255978</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>7759597.273878001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7350640.766878</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5916696.284816308</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>6645391.767588341</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7381196.672488341</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>7466246.175788341</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5279493.163088341</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5240524.613888341</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5131720.818488341</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5044533.543788341</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5348759.257188341</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5989990.846988341</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5895221.306988341</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>16791469.74203238</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>16797812.04263238</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>16588407.48893238</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>14445736.39243238</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>14262813.24863238</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>23344785.83126815</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>23374452.03126815</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>23647781.68346815</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>23571069.18346815</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>24115239.21276815</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>20567540.01496815</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>19786403.20196815</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>19615231.57736815</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>19518801.50686815</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>18815063.51776814</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>18815176.51776814</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>18798685.51786815</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>19678075.47206045</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>19733584.96186045</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>19762143.84346045</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>19801726.75096045</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>21702384.67956045</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>22086569.08776045</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>21860257.44799051</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>22104156.64449051</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>21905390.61021056</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>20470313.39201056</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>20807547.25571056</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>20608856.77731056</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>20647108.46901056</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>21110946.44851056</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>21018682.9854539</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>20855849.4070539</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>20668392.41515389</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>20634881.66495389</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>22045702.9546711</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>22136050.57060912</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>21992695.30580912</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>21993631.75730912</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>21981191.50760912</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>21981191.50760912</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>21839787.33010912</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>21478458.34240912</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>21132856.52140912</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>20792329.53190912</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>20792329.53190912</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>20936422.91110912</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>21137019.82130912</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>21352113.23390912</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>21359880.57740912</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>21359680.87740912</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>21359880.57740912</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>21383991.82390912</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>21383805.06820912</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>21384231.31310912</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>21398347.86819427</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>21498625.506401</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>21498553.395101</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>21320937.716201</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>21341302.410601</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>21283252.944001</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
